--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_5.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999676934209881</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999202872428711</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999977373981453</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999982677890539</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999986525846071</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G2" t="n">
-        <v>3.015677341266454e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007440835979418364</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.368126110201082e-06</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>1.56525223840581e-06</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>1.466689174303446e-06</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002633621596748155</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005491518315790683</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000059642915099</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005725303619503942</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P2" t="n">
-        <v>94.81820200577249</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q2" t="n">
-        <v>139.9166075258959</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_1</t>
+          <t>model_20_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999721883997228</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991798627299485</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999932321472055</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999944508945264</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999958169963239</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G3" t="n">
-        <v>2.596090807056926e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007655621417275889</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I3" t="n">
-        <v>4.092313501386543e-06</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>5.014256365844572e-06</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>4.553284933615557e-06</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002847604120669908</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005095184792583018</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000051344492819</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005312097357689831</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P3" t="n">
-        <v>95.1178373742685</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.2162428943919</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_2</t>
+          <t>model_20_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999751934149103</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991569305982929</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999985851020292</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999988967619759</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999914909808781</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G4" t="n">
-        <v>2.315585829802277e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007869682800238291</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I4" t="n">
-        <v>8.555455097432772e-06</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>9.969027101304847e-06</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>9.262241099368809e-06</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003042650043045225</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004812053438816195</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000045796772473</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005016912516030454</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P4" t="n">
-        <v>95.34652550243187</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q4" t="n">
-        <v>140.4449310225553</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_3</t>
+          <t>model_20_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999770459794369</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991345642795854</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999763754173702</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999825409537051</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999861924058403</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G5" t="n">
-        <v>2.142657063057127e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008078462567694285</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I5" t="n">
-        <v>1.428506224875804e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>1.577626059602146e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>1.502984824425068e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003232614562158038</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004628884382934107</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000042376653347</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004825945574227247</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50175757571195</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q5" t="n">
-        <v>140.6001630958354</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_4</t>
+          <t>model_20_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999779578052492</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991128093972754</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999652231402751</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999755275727257</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999801831179824</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G6" t="n">
-        <v>2.057542125933245e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008281534844767247</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I6" t="n">
-        <v>2.102850296952852e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.211365864871417e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>2.157108080912134e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003425917798379947</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004536013807224626</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000040693282617</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00472912130584122</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P6" t="n">
-        <v>95.58282667456218</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.6812321946856</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_5</t>
+          <t>model_20_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999780536330148</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990915410255629</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999524494482755</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999678834659631</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999734624392168</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G7" t="n">
-        <v>2.048597024643788e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008480065758968828</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I7" t="n">
-        <v>2.875236367089385e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>2.902099014169739e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>2.888667690629562e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000360633311333606</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004526142976800211</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000040516369819</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004718830253730201</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P7" t="n">
-        <v>95.59154056867226</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q7" t="n">
-        <v>140.6899460887957</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_6</t>
+          <t>model_20_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999977547317116</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990711118771549</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999386768059487</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999599762363148</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999663539299981</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G8" t="n">
-        <v>2.095859391341922e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000867076289199643</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I8" t="n">
-        <v>3.708025906911412e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>3.616608348849282e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>3.662443437260282e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003770701287582152</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004578055691384632</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000041451106863</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004772953000048614</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P8" t="n">
-        <v>95.54592357009024</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.6443290902137</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_7</t>
+          <t>model_20_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999766620096783</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990517812472151</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999245528434617</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999952319362482</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999592540770975</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G9" t="n">
-        <v>2.178498954593246e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008851205837319864</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I9" t="n">
-        <v>4.56205870184824e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>4.308495150103594e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>4.435276925975917e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003911121320367692</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004667439292152867</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000043085520594</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004866141845751114</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P9" t="n">
-        <v>95.4685787565391</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q9" t="n">
-        <v>140.5669842766625</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_8</t>
+          <t>model_20_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999754126305459</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990333031983195</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999098176832416</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999447162603828</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999520070009545</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G10" t="n">
-        <v>2.295123012461392e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009023690312833423</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I10" t="n">
-        <v>5.453048753555189e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>4.99552305545263e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>5.224135965314754e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004043515767851866</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004790744214066738</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000045392066685</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004994696113467235</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P10" t="n">
-        <v>95.36427804538624</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.4626835655096</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_9</t>
+          <t>model_20_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999740494528748</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999016150162466</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998955680450132</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999937649028612</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999451144442639</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G11" t="n">
-        <v>2.422369664400906e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009183806373212693</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I11" t="n">
-        <v>6.314680776033121e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>5.634128900382621e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>5.97440483820787e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004151186899733721</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00492175747513112</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000047908702385</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005131286880289966</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P11" t="n">
-        <v>95.25635840747944</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.3547639276028</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_10</t>
+          <t>model_20_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999724350684279</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989998405845619</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998809598296879</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999306802639988</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999381641362461</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G12" t="n">
-        <v>2.573065366187071e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009336049123870353</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I12" t="n">
-        <v>7.197994858375995e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>6.263837102737859e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>6.730960061002614e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004254918760022591</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005072539173024759</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000050889104441</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005288487667224081</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P12" t="n">
-        <v>95.13565505466904</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.2340605747925</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_11</t>
+          <t>model_20_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999707576890375</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989845587952496</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.99986679186529</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999240998062358</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999314980899948</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G13" t="n">
-        <v>2.729641369435585e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009478697919170849</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I13" t="n">
-        <v>8.054688314228609e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>6.858457305682907e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>7.456572809955758e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004347598640340438</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005224596988702176</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000053985804854</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005447018898917958</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P13" t="n">
-        <v>95.01751046181961</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.115915981943</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999689890235743</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C14" t="n">
-        <v>0.99897016189117</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998526922835653</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999178283081321</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999249788705536</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G14" t="n">
-        <v>2.89473852688363e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009613086699243041</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I14" t="n">
-        <v>8.907246879069546e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>7.42515944243671e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>8.166203160753129e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004433859384840833</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005380277434188343</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000057251033401</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00560932698327142</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P14" t="n">
-        <v>94.90006135378005</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q14" t="n">
-        <v>139.9984668739035</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_13</t>
+          <t>model_20_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999671864137728</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989566871866064</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998389225822685</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999911899126306</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999186938160693</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G15" t="n">
-        <v>3.063004239307693e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009738867151633541</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I15" t="n">
-        <v>9.7398585838115e-05</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>7.960929358100837e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>8.850344177746886e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004513931833672075</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005534441470742728</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000060578928419</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005770054102025475</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P15" t="n">
-        <v>94.78705850616555</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.885464026289</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_14</t>
+          <t>model_20_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999654211977869</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989441892729689</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998257313790235</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999064335346102</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999127609439789</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G16" t="n">
-        <v>3.22777940319928e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000985552968948863</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001053749028145007</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>8.454808562318357e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>9.496149421884213e-05</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004584074654964786</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005681354946840833</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000063837788701</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005923221988953897</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P16" t="n">
-        <v>94.68226211087145</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.7806676309949</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_15</t>
+          <t>model_20_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999637029003001</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989325650658952</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998130495320231</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999014540826917</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999071717821686</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G17" t="n">
-        <v>3.388174931131394e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009964036560084863</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001130432276551137</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>8.904759434568015e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001010454110003969</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004647327039761929</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005820803150022679</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000067010030215</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00606860679084277</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P17" t="n">
-        <v>94.58526811389598</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q17" t="n">
-        <v>139.6836736340194</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_16</t>
+          <t>model_20_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999620129266195</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989217490326119</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998008058961108</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998967982474684</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999018386549753</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G18" t="n">
-        <v>3.545926556090116e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001006499948309401</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001204465796591933</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>9.325467808524499e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001068506288722191</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004705697953296568</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005954768304552341</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000070129981626</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006208275119346859</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P18" t="n">
-        <v>94.49425193859044</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.5926574587139</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_17</t>
+          <t>model_20_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999604855509191</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989119707315588</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997898839847239</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998926433872626</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998970825349375</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G19" t="n">
-        <v>3.688500373312945e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001015627563124724</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001270507252850347</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>9.700907315582532e-05</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001120277626706564</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004752756977683711</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006073302539239211</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000072949752149</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006331855601804042</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P19" t="n">
-        <v>94.4154109848361</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.5138165049595</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_18</t>
+          <t>model_20_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999591108992306</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989032330966043</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9997801570419701</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998889388348957</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998928412972017</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G20" t="n">
-        <v>3.816818074409397e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001023783761816855</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001329323099422039</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001003565631930762</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00011664443656764</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004788084383439337</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00617804020253138</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000075487570651</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006441052164259411</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P20" t="n">
-        <v>94.34701670854798</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q20" t="n">
-        <v>139.4454222286714</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_19</t>
+          <t>model_20_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999577354619036</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988949621494303</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997704744273401</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998854694651704</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998887119506061</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G21" t="n">
-        <v>3.945209111415217e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001031504327951181</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001387870907392762</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001034915386072768</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001211393146732765</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004825309022989775</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006281089962271849</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000078026839563</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006548488965614442</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P21" t="n">
-        <v>94.28084701076264</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.3792525308861</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_20</t>
+          <t>model_20_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999956413307147</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9988873277143693</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997612910561469</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998822089046943</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998848079376115</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G22" t="n">
-        <v>4.0686264543589e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001038630737967656</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00014433999430606</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001064378307982627</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001253889125521613</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004859859692285175</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006378578567642559</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000080467740652</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006650127862745017</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P22" t="n">
-        <v>94.21924000595317</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.3176455260766</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_21</t>
+          <t>model_20_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999552848206431</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9988805792059994</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997532174848204</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998796098065121</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998814867200401</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G23" t="n">
-        <v>4.173965716012912e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001044930174305652</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001492218358511994</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001087864155687601</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001290041257099798</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004884691037093501</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006460623589107256</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000082551100351</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006735665710630074</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P23" t="n">
-        <v>94.16811774009948</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q23" t="n">
-        <v>139.2665232602229</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_22</t>
+          <t>model_20_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999541536623326</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9988740096066661</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997451688037319</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998771048270128</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998782114811388</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G24" t="n">
-        <v>4.279554379088143e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001051062606911219</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001540886270309749</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001110499532616767</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001325692901463258</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004913644123933446</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006541830308933535</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000084639392617</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006820329568640443</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P24" t="n">
-        <v>94.11815315566511</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.2165586757885</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_5_23</t>
+          <t>model_20_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999531779536897</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9988684426679426</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997383781481165</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998748692700427</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999875397484763</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G25" t="n">
-        <v>4.370632498043638e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001056259099849279</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001581947287004279</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001130700366465902</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.000135632382673509</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004932833420352714</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006611075932133618</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000086440700881</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006892523121378353</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P25" t="n">
-        <v>94.07603545988322</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.1744409800066</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999522563303185</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.99886328061422</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997320103624636</v>
+        <v>0.9999999999999697</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998727846373695</v>
+        <v>0.9999968636398666</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998727635833197</v>
+        <v>0.9999998123027997</v>
       </c>
       <c r="G26" t="n">
-        <v>4.456661994283457e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001061077650411282</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001620451338424943</v>
+        <v>3.311478096098398e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001149537425342376</v>
+        <v>3.066770497431888e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000138499438188366</v>
+        <v>1.533385414289849e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004950700495696538</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006675823540420655</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000088142159412</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006960027169396196</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P26" t="n">
-        <v>94.0370508218563</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q26" t="n">
-        <v>139.1354563419797</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
   </sheetData>
